--- a/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,84%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>23,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 74,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 298,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13,79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 37,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 134,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 63,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -929,27 +929,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>9,7</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 98,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,07%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,95; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,95; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 323,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -1089,27 +1089,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 31,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 47,85</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-5,56</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,93</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,24; 7,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 29,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,13; 8,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 45,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 6,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 19,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 7,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 6,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 24,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,33; 8,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 102,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 37,17</t>
+          <t>-32,44; 49,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 63,3</t>
+          <t>-33,16; 98,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,31</t>
+          <t>0,0; 47,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-73,55; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,19 +662,19 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 102,33</t>
+          <t>0,0; 100,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-73,55; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,4</t>
+          <t>0,0; 60,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 49,63</t>
+          <t>-31,46; 50,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 134,73</t>
+          <t>0,0; 154,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 98,21</t>
+          <t>-32,45; 103,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,72</t>
+          <t>0,0; 48,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 98,89</t>
+          <t>0,0; 94,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,95; 0,0</t>
+          <t>-71,67; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,95; 0,0</t>
+          <t>-71,67; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 323,9</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 0,0</t>
+          <t>-31,17; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 31,88</t>
+          <t>-5,99; 33,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 0,0</t>
+          <t>-31,17; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 47,85</t>
+          <t>-6,09; 54,53</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 7,77</t>
+          <t>-27,36; 7,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 29,92</t>
+          <t>-1,04; 29,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 8,23</t>
+          <t>-28,74; 8,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 45,07</t>
+          <t>-0,8; 43,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 6,1</t>
+          <t>-8,46; 6,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 19,04</t>
+          <t>0,83; 19,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 7,79</t>
+          <t>-7,19; 8,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 6,68</t>
+          <t>-8,52; 6,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 24,63</t>
+          <t>0,48; 25,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 8,57</t>
+          <t>-7,51; 9,35</t>
         </is>
       </c>
     </row>
